--- a/fuentes/contenidos/grado08/guion04/SolicitudGrafica_CN_08_04_CO_REC100.xlsx
+++ b/fuentes/contenidos/grado08/guion04/SolicitudGrafica_CN_08_04_CO_REC100.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magda\Desktop\2015\PLANETA\GRECO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1824,7 +1819,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1861,7 +1856,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16756063" y="4032251"/>
+          <a:off x="16744950" y="4051301"/>
           <a:ext cx="1508125" cy="849312"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="4092575" cy="1391920"/>
@@ -2045,7 +2040,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2053,20 +2048,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2100,7 +2081,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2108,20 +2089,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2155,7 +2122,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2163,20 +2130,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2210,7 +2163,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2218,20 +2171,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2265,7 +2204,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2273,20 +2212,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2320,7 +2245,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2328,20 +2253,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2375,7 +2286,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2383,20 +2294,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2732,9 +2629,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
